--- a/imageCreationExcel/back/113/113_0.xlsx
+++ b/imageCreationExcel/back/113/113_0.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25.7898391865109</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8288201414806164</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8920448681680786</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_E_brightness25.79_contrast0.829_gamma0.892.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.16258049873476</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5703554295258625</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26.32285968831392</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_8_contrast1.163_gamma0.57_equalization26.323.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.061080869678443</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1963266614549309</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.805520842061433</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_contrast1.061_sharpness0.196_equalization8.806.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.907788753241138</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9050189693470125</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.05536459494159055</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_E_brightness4.908_gamma0.905_sharpness0.055.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.98144066822985</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.760741015448565</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5157906146460123</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_T_brightness25.981_gamma0.761_sharpness0.516.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,30 +705,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.112987364682882</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.120805276391533</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>21.89084666949682</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_1_contrast1.113_sharpness0.121_equalization21.891.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.308852311337963</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.08561842448529</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4268498337927826</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_brightness9.309_contrast1.086_sharpness0.427.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9437585643191075</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.861874265356078</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.31879326504045</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_contrast0.944_gamma0.862_equalization20.319.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,16 +822,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20.04371848910228</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6138778812747147</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.3769379381838437</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_7_brightness20.044_gamma0.614_sharpness0.377.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8667132026063508</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9895605936346539</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.949796618836672</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_contrast0.867_sharpness0.99_equalization5.95.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.982364627980424</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.144714157327941</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3982098826011257</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_brightness8.982_contrast1.145_sharpness0.398.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25.53885671294649</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8173121820763801</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7944466375433271</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_T_brightness25.539_contrast0.817_gamma0.794.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.299748897916089</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.054471101793244</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.285352319046289</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_8_brightness9.3_contrast1.054_sharpness0.285.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28.54537189609164</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8519546695996686</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5855235088479218</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_brightness28.545_contrast0.852_sharpness0.586.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.76492679589883</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.178211244228946</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7972318470095525</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_brightness18.765_contrast1.178_gamma0.797.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24.68626660954304</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.097062728149967</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.6783589945995917</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_8_brightness24.686_contrast1.097_gamma0.678.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.657712717914094</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8666073400783397</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.378130557602857</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_brightness5.658_contrast0.867_sharpness0.378.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9756774009949245</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9605891533266511</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>28.45883236061273</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_contrast0.976_sharpness0.961_equalization28.459.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.604134677710789</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.166300595041765</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.4445922956314285</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_brightness6.604_contrast1.166_sharpness0.445.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.034950497001453</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7463393217053698</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7712513285419298</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast1.035_gamma0.746_sharpness0.771.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5.998393891506328</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.180567999671951</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.6835695068469724</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_brightness5.998_contrast1.181_gamma0.684.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7884331680143173</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.06626903552899684</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>19.29476113649464</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_gamma0.788_sharpness0.066_equalization19.295.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.025506773964723</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.710002790632729</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7857082141033473</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_contrast1.026_gamma0.71_sharpness0.786.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.01473272068379</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.001246307306426</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6579990384810415</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_brightness13.015_contrast1.001_sharpness0.658.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.13122141477412</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.887485196519972</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>11.13641881586893</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_contrast1.131_gamma0.887_equalization11.136.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.166427051271365</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7650244288045178</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10.57591690022832</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_contrast1.166_gamma0.765_equalization10.576.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.089461843044048</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7885043035591731</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.025350979307217</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_contrast1.089_gamma0.789_equalization4.025.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.110491721469213</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6369469753781404</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16.74141161910803</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_contrast1.11_sharpness0.637_equalization16.741.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.002130237170508</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1020747107571506</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16.13965256422803</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_2_gamma1.002_sharpness0.102_equalization16.14.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8433860206391731</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7938086582830495</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.390167133029201</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_contrast0.843_sharpness0.794_equalization6.39.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8584981972640049</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8576808632218865</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6996383031030216</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_2_brightness0.858_contrast0.858_gamma0.7.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.185497985437743</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6999224578883091</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>26.32541444561965</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_contrast1.185_gamma0.7_equalization26.325.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.116030906980674</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.066243255079363</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5.719528246244304</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_contrast1.116_gamma1.066_equalization5.72.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.096819618520062</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.3809024029110942</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11.42455871476643</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_B_gamma1.097_sharpness0.381_equalization11.425.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.13954119872838</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5647572865648656</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.107987525679165</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_contrast1.14_gamma0.565_sharpness0.108.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.253753229232381</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9453669099684825</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.09361763950123954</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_T_brightness3.254_contrast0.945_sharpness0.094.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,15 +2007,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20.61573805332078</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7554634978133943</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.7317358813787112</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_brightness20.616_gamma0.755_sharpness0.732.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8754753922148633</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6941710016281504</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.4703620629746623</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_contrast0.875_gamma0.694_sharpness0.47.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7390931493111643</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.28319458641177</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>31.01875697484198</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_gamma0.739_sharpness0.283_equalization31.019.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8031070029009106</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6574445067635364</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18.40911316780129</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_contrast0.803_gamma0.657_equalization18.409.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.080960518986698</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6443618857224296</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>31.65266133624565</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_contrast1.081_sharpness0.644_equalization31.653.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.81143204623256</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9628400852303627</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.7310362169620307</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_contrast0.811_gamma0.963_sharpness0.731.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>29.25252589034215</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9126428722465176</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.8813676691441619</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_brightness29.253_gamma0.913_sharpness0.881.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>27.82314033040977</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9335703947126881</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4714684018530839</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_brightness27.823_contrast0.934_sharpness0.471.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.191565019921146</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.587320349837814</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.40114163069303</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_contrast1.192_gamma0.587_equalization11.401.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3.202238342234951</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.060848772172033</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.9894902612840897</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_9_brightness3.202_contrast1.061_sharpness0.989.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10.1231870295966</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.064884974255647</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.6496958228063194</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_brightness10.123_contrast1.065_gamma0.65.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.7936391744208746</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.02814593994303666</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>28.45905393906892</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_9_gamma0.794_sharpness0.028_equalization28.459.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
